--- a/letter_specs.xlsx
+++ b/letter_specs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NateAmanda/Documents/XcodeProjects/btc_words/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NateAmanda/Documents/GitHub/btc-words/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD627D6-6C41-9547-A27E-74E3185567FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9BD55D-3098-2846-9056-F25149F4CD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11800" yWindow="4800" windowWidth="21800" windowHeight="15880" xr2:uid="{86D4E0A5-C0A4-F44F-9DF0-DEBC1F03682E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="62">
   <si>
     <t>A</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>FIFTH LETTER</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -255,7 +267,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +619,7 @@
   <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:AA19"/>
+      <selection activeCell="AA20" sqref="A1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1064,6 +1076,9 @@
       <c r="Z8" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="AA8" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -1287,6 +1302,9 @@
       <c r="Z12" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="AA12" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
@@ -1510,6 +1528,9 @@
       <c r="Z16" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="AA16" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
@@ -1733,6 +1754,9 @@
       <c r="Z20" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="AA20" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
